--- a/nsvs_projekt.xlsx
+++ b/nsvs_projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimarudnenko/Desktop/4_Semester_Bulme/NSVS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Desktop\netzwerk_projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B1F17-CC4B-1F4E-AAEC-6BE22F94E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD0747-C2E2-47CE-A27B-3287408F6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="660" windowWidth="25440" windowHeight="14600" xr2:uid="{F7E2D8AC-6D8C-8E46-969F-E93333B3B27D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7E2D8AC-6D8C-8E46-969F-E93333B3B27D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Name des Netzwerks</t>
   </si>
@@ -44,39 +44,128 @@
     <t>Ip-Bereich</t>
   </si>
   <si>
-    <t>Subnetmask</t>
-  </si>
-  <si>
     <t>Netzwerk Adresse</t>
   </si>
   <si>
     <t>Broadcast Adresse</t>
   </si>
   <si>
-    <t>Iot Lan</t>
-  </si>
-  <si>
-    <t>Lan1(Production)</t>
-  </si>
-  <si>
-    <t>Lan2(Office)</t>
-  </si>
-  <si>
-    <t>Lan3(zwischen Router und DNS-Server)</t>
-  </si>
-  <si>
-    <t>Lan4(zwischen Router1 bis Router0)</t>
-  </si>
-  <si>
-    <t>Lan5(zwischen Router1 bis Router2)</t>
+    <t>DNS-LAN(&gt;2)</t>
+  </si>
+  <si>
+    <t>Office(14)</t>
+  </si>
+  <si>
+    <t>Production(99)</t>
+  </si>
+  <si>
+    <t>IoT(max 254)</t>
+  </si>
+  <si>
+    <t>R1-R0(2)</t>
+  </si>
+  <si>
+    <t>R1-ISP(2)</t>
+  </si>
+  <si>
+    <t>ISP-Internet</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>10.2.1.0</t>
+  </si>
+  <si>
+    <t>10.2.0.1 - 10.2.1.254</t>
+  </si>
+  <si>
+    <t>10.2.0.0</t>
+  </si>
+  <si>
+    <t>10.2.0.255</t>
+  </si>
+  <si>
+    <t>10.2.1.1 - 10.2.1.126</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>10.2.1.127</t>
+  </si>
+  <si>
+    <t>10.2.1.129 - 10.2.1.158</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>10.2.1.128</t>
+  </si>
+  <si>
+    <t>10.2.1.159</t>
+  </si>
+  <si>
+    <t>10.2.1.161 - 10.2.1.166</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>10.2.1.160</t>
+  </si>
+  <si>
+    <t>10.2.1.167</t>
+  </si>
+  <si>
+    <t>10.2.1.169 - 10.2.1.170</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>10.2.1.168</t>
+  </si>
+  <si>
+    <t>10.2.1.171</t>
+  </si>
+  <si>
+    <t>10.2.1.172</t>
+  </si>
+  <si>
+    <t>10.2.1.175</t>
+  </si>
+  <si>
+    <t>199.120.120.0</t>
+  </si>
+  <si>
+    <t>199.120.120.255</t>
+  </si>
+  <si>
+    <t>10.2.1.173 - 10.2.1.174</t>
+  </si>
+  <si>
+    <t>199.120.120.1 - 199.120.120.254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -92,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -115,16 +204,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,7 +317,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,93 +633,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0D9093-5B24-784B-B95A-F22047DBD59F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nsvs_projekt.xlsx
+++ b/nsvs_projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Desktop\netzwerk_projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD0747-C2E2-47CE-A27B-3287408F6C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C97B9FB-FC75-420A-B80E-AAC36FE830D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7E2D8AC-6D8C-8E46-969F-E93333B3B27D}"/>
   </bookViews>
@@ -143,13 +143,13 @@
     <t>199.120.120.0</t>
   </si>
   <si>
-    <t>199.120.120.255</t>
-  </si>
-  <si>
     <t>10.2.1.173 - 10.2.1.174</t>
   </si>
   <si>
-    <t>199.120.120.1 - 199.120.120.254</t>
+    <t>199.120.120.1 - 199.120.120.6</t>
+  </si>
+  <si>
+    <t>199.120.120.7</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -772,16 +772,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/nsvs_projekt.xlsx
+++ b/nsvs_projekt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Desktop\netzwerk_projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimarudnenko/Desktop/4_Semester_Bulme/NSVS/nsvs_projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C97B9FB-FC75-420A-B80E-AAC36FE830D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC537C55-EA64-5D45-A6AC-81C398D342AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7E2D8AC-6D8C-8E46-969F-E93333B3B27D}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="23260" windowHeight="12460" xr2:uid="{F7E2D8AC-6D8C-8E46-969F-E93333B3B27D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name des Netzwerks</t>
   </si>
@@ -110,18 +110,9 @@
     <t>10.2.1.159</t>
   </si>
   <si>
-    <t>10.2.1.161 - 10.2.1.166</t>
-  </si>
-  <si>
     <t>/29</t>
   </si>
   <si>
-    <t>10.2.1.160</t>
-  </si>
-  <si>
-    <t>10.2.1.167</t>
-  </si>
-  <si>
     <t>10.2.1.169 - 10.2.1.170</t>
   </si>
   <si>
@@ -150,6 +141,39 @@
   </si>
   <si>
     <t>199.120.120.7</t>
+  </si>
+  <si>
+    <t>IoT-Internet</t>
+  </si>
+  <si>
+    <t>199.120.120.8</t>
+  </si>
+  <si>
+    <t>199.120.120.16</t>
+  </si>
+  <si>
+    <t>199.120.120.9 - 199.120.120.14</t>
+  </si>
+  <si>
+    <t>199.120.120.15</t>
+  </si>
+  <si>
+    <t>Internet-Server</t>
+  </si>
+  <si>
+    <t>199.120.120.23</t>
+  </si>
+  <si>
+    <t>199.120.120.17 - 199.120.120.22</t>
+  </si>
+  <si>
+    <t>199.120.120.24</t>
+  </si>
+  <si>
+    <t>199.120.120.31</t>
+  </si>
+  <si>
+    <t>199.120.120.25 - 199.120.120.30</t>
   </si>
 </sst>
 </file>
@@ -260,7 +284,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -275,7 +299,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -290,18 +314,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -633,22 +659,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0D9093-5B24-784B-B95A-F22047DBD59F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.296875" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,8 +691,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -682,8 +708,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -699,8 +725,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -716,72 +742,106 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
